--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value850.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value850.xlsx
@@ -354,7 +354,7 @@
         <v>1.841764255233958</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.173042010759877</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value850.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value850.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8148055087894408</v>
+        <v>0.6919785141944885</v>
       </c>
       <c r="B1">
-        <v>1.841764255233958</v>
+        <v>1.046266078948975</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.930750608444214</v>
       </c>
       <c r="D1">
-        <v>2.173042010759877</v>
+        <v>3.549507856369019</v>
       </c>
       <c r="E1">
-        <v>1.398021508158709</v>
+        <v>1.977318406105042</v>
       </c>
     </row>
   </sheetData>
